--- a/Instances/02_Normal_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/02_Normal_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>3632000</v>
+        <v>1452.8</v>
       </c>
       <c r="F2" t="n">
-        <v>160</v>
+        <v>0.064</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1600</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1255,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>92.55</v>
+        <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>96000</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>185.1</v>
+        <v>0.07403999999999999</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1851</v>
+        <v>0.7403999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1284,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>92.5</v>
+        <v>0.037</v>
       </c>
       <c r="E4" t="n">
-        <v>48000</v>
+        <v>19.2</v>
       </c>
       <c r="F4" t="n">
-        <v>185</v>
+        <v>0.074</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1850</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1313,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>92.34999999999999</v>
+        <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>192000</v>
+        <v>76.80000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>184.7</v>
+        <v>0.07388</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1847</v>
+        <v>0.7388</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>92.34999999999999</v>
+        <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>208800</v>
+        <v>83.52000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>184.7</v>
+        <v>0.07388</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1847</v>
+        <v>0.7388</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1371,13 +1371,13 @@
         <v>11800</v>
       </c>
       <c r="D7" t="n">
-        <v>92.55</v>
+        <v>0.03702</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>185.1</v>
+        <v>0.07403999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>4000</v>
@@ -1386,7 +1386,7 @@
         <v>7500</v>
       </c>
       <c r="I7" t="n">
-        <v>1851</v>
+        <v>0.7403999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1400,13 +1400,13 @@
         <v>5773</v>
       </c>
       <c r="D8" t="n">
-        <v>92.5</v>
+        <v>0.037</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>185</v>
+        <v>0.074</v>
       </c>
       <c r="G8" t="n">
         <v>2000</v>
@@ -1415,7 +1415,7 @@
         <v>3500</v>
       </c>
       <c r="I8" t="n">
-        <v>1850</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1429,13 +1429,13 @@
         <v>20560</v>
       </c>
       <c r="D9" t="n">
-        <v>184.7</v>
+        <v>0.07388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>369.4</v>
+        <v>0.14776</v>
       </c>
       <c r="G9" t="n">
         <v>8000</v>
@@ -1444,7 +1444,7 @@
         <v>9000</v>
       </c>
       <c r="I9" t="n">
-        <v>3694</v>
+        <v>1.4776</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1458,13 +1458,13 @@
         <v>2109</v>
       </c>
       <c r="D10" t="n">
-        <v>92.34999999999999</v>
+        <v>0.03694</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>184.7</v>
+        <v>0.07388</v>
       </c>
       <c r="G10" t="n">
         <v>700</v>
@@ -1473,7 +1473,7 @@
         <v>1400</v>
       </c>
       <c r="I10" t="n">
-        <v>1847</v>
+        <v>0.7388</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1487,13 +1487,13 @@
         <v>11800</v>
       </c>
       <c r="D11" t="n">
-        <v>80.55</v>
+        <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>4400</v>
+        <v>1.76</v>
       </c>
       <c r="F11" t="n">
-        <v>161.1</v>
+        <v>0.06444</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1611</v>
+        <v>0.6444</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1516,13 +1516,13 @@
         <v>5773</v>
       </c>
       <c r="D12" t="n">
-        <v>80.5</v>
+        <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>2000</v>
+        <v>0.8</v>
       </c>
       <c r="F12" t="n">
-        <v>161</v>
+        <v>0.0644</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1610</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1545,13 +1545,13 @@
         <v>20560</v>
       </c>
       <c r="D13" t="n">
-        <v>80.34999999999999</v>
+        <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>5600</v>
+        <v>2.24</v>
       </c>
       <c r="F13" t="n">
-        <v>160.7</v>
+        <v>0.06428</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1607</v>
+        <v>0.6428</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1574,13 +1574,13 @@
         <v>22669</v>
       </c>
       <c r="D14" t="n">
-        <v>80.34999999999999</v>
+        <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>6090</v>
+        <v>2.436</v>
       </c>
       <c r="F14" t="n">
-        <v>160.7</v>
+        <v>0.06428</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1607</v>
+        <v>0.6428</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Normal_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/02_Normal_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11800</v>
+        <v>18117</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5773</v>
+        <v>8721</v>
       </c>
       <c r="D8" t="n">
         <v>0.037</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>20560</v>
+        <v>28140</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2109</v>
+        <v>3288</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11800</v>
+        <v>18117</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5773</v>
+        <v>8721</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>20560</v>
+        <v>28140</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>22669</v>
+        <v>31429</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>147000</v>
+        <v>367500</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>635600</v>
+        <v>1589000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>681000</v>
+        <v>1702500</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1362000</v>
+        <v>3405000</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Normal_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/02_Normal_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1603,7 +1603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1825,6 +1825,50 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>700</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1839,7 +1883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,6 +2105,50 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
